--- a/tables/table_08_v2.xlsx
+++ b/tables/table_08_v2.xlsx
@@ -60,10 +60,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,35 +190,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -210,8 +227,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,455 +519,455 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F25" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.32</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0.01</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.32</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.06</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.06</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>127</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>161</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>169</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.37</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.37</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.35</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.13</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.35</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>127</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>161</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>169</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.84</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0.84</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.06</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.06</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>127</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>161</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>169</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>0.87</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.12</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0.87</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.12</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.12</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.12</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>127</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>161</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>169</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>0.36</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>0.36</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.19</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>0.19</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>127</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>161</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>169</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/tables/table_08_v2.xlsx
+++ b/tables/table_08_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table_08" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,22 +72,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,10 +174,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -238,9 +220,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,12 +499,12 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -559,7 +539,7 @@
         <v>0.32</v>
       </c>
       <c r="E2" s="4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F2" s="5">
         <v>127</v>
@@ -577,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0.06</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F3" s="5">
         <v>161</v>
@@ -589,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0.06</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -735,7 +715,7 @@
         <v>0.84</v>
       </c>
       <c r="E12" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F12" s="5">
         <v>127</v>
@@ -753,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0.06</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F13" s="5">
         <v>161</v>
@@ -765,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>0.06</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
